--- a/result/100-Zine_Cereales.xlsx
+++ b/result/100-Zine_Cereales.xlsx
@@ -525,12 +525,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8298035.43</t>
+          <t>2288525.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120859.51</t>
+          <t>6120369.51</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IMMOBILISATION EN NON VALEUR (#)</t>
+          <t>IMMOBILISATION EN NON VALEUR (a)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>19705.00</t>
+          <t>1922433.17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7930059.94</t>
+          <t>7930099.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>120859.51</t>
+          <t>120888.57</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1522433.17</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Charges à repartir sur plusieurs exercices</t>
+          <t>Charges à répartir sur plusieurs exercices</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>477760.00</t>
+          <t>477750.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>298145.00</t>
+          <t>298135.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>194267.40</t>
+          <t>191267.40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -798,40 +798,14 @@
           <t>Immobilisations en recherche et développement</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Immobilisations en recherche et développement</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -856,22 +830,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>469130.00</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>171848.00</t>
+          <t>787.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>297282.00</t>
+          <t>863.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>191678.40</t>
+          <t>2586.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -912,7 +886,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8630.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -922,12 +896,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>863.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2589.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -966,40 +940,14 @@
           <t>Autres immobilisations incorporelles</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7767.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Autres immobilisations incorporelles</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1024,7 +972,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>189655817.16</t>
+          <t>169655817.16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1034,12 +982,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>168022513.54</t>
+          <t>168022475.54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>150736596.71</t>
+          <t>150736513.60</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1085,17 +1033,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15503929.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>72330475.30</t>
+          <t>66826546.30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>69203475.30</t>
+          <t>69203186.03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1136,22 +1084,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>101942784.82</t>
+          <t>101342784.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15503929.06</t>
+          <t>2528069.80</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>86438855.76</t>
+          <t>98814714.43</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>75723186.03</t>
+          <t>75723186.91</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1192,22 +1140,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6829322.23</t>
+          <t>6829322.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2528069.60</t>
+          <t>528440.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4301252.63</t>
+          <t>4301852.21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2058590.91</t>
+          <t>2058500.44</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1248,22 +1196,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1257.65</t>
+          <t>8551977.15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3600864.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>817.54</t>
+          <t>4951112.31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1194.03</t>
+          <t>3750150.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1304,22 +1252,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8551977.16</t>
+          <t>1257.65</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3600864.85</t>
+          <t>440.86</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4951112.31</t>
+          <t>816.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3750150.44</t>
+          <t>1184.03</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1328,7 +1276,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mobiliers, matériel de bureau et aménagements divers</t>
+          <t>Mobilier, matériel de bureau et aménagements divers</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1526,40 +1474,14 @@
           <t>Prêts immobilisés</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Prêts immobilisés</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1776,7 +1698,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ECART DE CONVERSION - ACTIF (i) (Elém. Circul.)</t>
+          <t>ECART DE CONVERSION - ACTIF (I) (Elem. Circul.)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1832,7 +1754,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Diminution des créances immobilisées</t>
+          <t>Distribution des créances d'immobilisation</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1888,7 +1810,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Augmentation des dettes de financement</t>
+          <t>Augmentation des dettes financières</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1965,7 +1887,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>258352802.48</t>
+          <t>251352852.48</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2021,7 +1943,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>251854067.83</t>
+          <t>258498637.83</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2060,40 +1982,14 @@
           <t>Matières et fournitures consommables</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6114017.74</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>6114017.74</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>6498734.65</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Matières et fournitures consommables</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2172,40 +2068,14 @@
           <t>Produits intermédiaires et produits résiduels</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Produits intermédiaires et produits résiduels</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2301,7 +2171,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>453998881.95</t>
+          <t>45398881.05</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2342,7 +2212,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90471812.00</t>
+          <t>328870390.68</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2352,12 +2222,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>90471812.00</t>
+          <t>328870390.68</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>39471812.00</t>
+          <t>328360059.69</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2398,7 +2268,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>328870390.66</t>
+          <t>90471812.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2408,12 +2278,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>328870390.66</t>
+          <t>90471812.00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>328360050.69</t>
+          <t>39471812.00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2742,7 +2612,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>767367347.32</t>
+          <t>787367347.32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2752,7 +2622,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>757367347.32</t>
+          <t>787367347.32</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2925,7 +2795,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>94969764.13</t>
+          <t>94909764.70</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2981,7 +2851,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>402868.70</t>
+          <t>402868.13</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2990,7 +2860,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Caisses, régies d'avances et accrédités</t>
+          <t>Caisses, régies et avances et secrétarits</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3297,7 +3167,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Prime d'emission, de fusion, d'apport</t>
+          <t>Prime d'émission, de fusion, d'apport</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3339,7 +3209,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ecarts de roévaluation</t>
+          <t>Ecarts de réévaluation</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3427,7 +3297,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Autres reserves</t>
+          <t>Autres réserves</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3653,7 +3523,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CAPITAUX PROPRES ASSIMILES (b)</t>
+          <t>CAPITAUX PROPRES ASSIMILÉS (b)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -4579,7 +4449,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Comptes de régularisation -passif</t>
+          <t>Comptes de régularisation - passif</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4909,19 +4779,23 @@
           <t>TOTAL III</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>758342831.99</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1928.17</t>
+          <t>809150947.12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TOTAL VIII</t>
+          <t>TOTAL III</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5108,20 +4982,24 @@
           <t>Ventes de marchandises</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1453859946.25</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1453859946.25</t>
+          <t>1463708857.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1463708857.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1483708857.03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -5334,7 +5212,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Immobilisations produites pour l'Ese plèle même</t>
+          <t>Immobilisations produites pour l'Ese plle même</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -6028,7 +5906,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Résultat d'exploitation (I - II)</t>
+          <t>RESULTAT D'EXPLOITATION (I - II)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -6206,7 +6084,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Intérêts et autres produits financiers</t>
+          <t>intérêts et autres produits financiers</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -6615,35 +6493,13 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-32741239.57</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>-23639430.75</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Résultat financier (IV - V)</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6667,35 +6523,13 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>22963542.18</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>16439381.68</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Résultat courant (I - II - V)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6736,7 +6570,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>VI RESULTAT COURANT (Report)</t>
+          <t>RESULTAT COURANT (Report)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6771,19 +6605,9 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>VII PRODUITS NON COURANTS</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6954,24 +6778,16 @@
           <t>Autres produits non courants</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>1313296.44</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>4889310.18</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>4889376.18</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -7058,24 +6874,16 @@
           <t>TOTAL VII</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>1313296.44</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>5429310.18</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>5429376.18</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -7119,19 +6927,9 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>VIII CHARGES NON COURANTES</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7254,19 +7052,15 @@
           <t>Autres charges non courantes</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>1792.80</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>34599.60</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7360,12 +7154,30 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1928.17</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>34724.60</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>TOTAL IX</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7406,7 +7218,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>X RESULTAT NON COURANT (VII-VIII)</t>
+          <t>RESULTAT NON COURANT (VIII-IV)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -7458,7 +7270,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>XI RESULTAT AVANT IMPOTS (VI+X)</t>
+          <t>RESULTAT AVANT IMPOTS (VI+X)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -7514,7 +7326,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>XII IMPOTS SUR LES RESULTATS</t>
+          <t>IMPOTS SUR LES RESULTATS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -7566,7 +7378,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>XIII RESULTAT NET (XI-XII)</t>
+          <t>RESULTAT NET (XI-XII)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -7618,7 +7430,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>XIV TOTAL DES PRODUITS (I+IV+VIII)</t>
+          <t>TOTAL DES PRODUITS (I+IV+VIII)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -7670,7 +7482,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>XV TOTAL DES CHARGES (II+V+IX+XII)</t>
+          <t>TOTAL DES CHARGES (II+V+IX+XII)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -7722,7 +7534,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>XVI RESULTAT NET (XIV-XV)</t>
+          <t>RESULTAT NET (XIV-XV)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">

--- a/result/100-Zine_Cereales.xlsx
+++ b/result/100-Zine_Cereales.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>440.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1069073729.50</t>
+          <t>758342831.99</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1076598524.04</t>
+          <t>809150947.12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TOTAL (I+II+III)</t>
+          <t>TOTAL III</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Immobilisations produites pour l'Ese plelle même</t>
+          <t>Immobilisations produites pour l'Ese même</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Achat consommes de matières et de fournitures</t>
+          <t>Achat consommés de matières et de fournitures</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Charges d'imérêts</t>
+          <t>Charges d'intérêts</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -6623,35 +6623,13 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-32741239.57</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>-23862430.75</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>RESULTAT FINANCIER (IV - V)</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6675,35 +6653,13 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>22963542.18</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>16439381.68</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>RESULTAT COURANT (III - VI)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6744,7 +6700,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>RESULTAT COURANT (Report)</t>
+          <t>VI RESULTAT COURANT (Report)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6784,7 +6740,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>PRODUITS NON COURANTS</t>
+          <t>VII PRODUITS NON COURANTS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -7132,7 +7088,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>CHARGES NON COURANTES</t>
+          <t>VIII CHARGES NON COURANTES</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -7436,7 +7392,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>RESULTAT NON COURANT (VIII-IX)</t>
+          <t>X RESULTAT NON COURANT (VIII-IX)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -7488,7 +7444,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>RESULTAT AVANT IMPOTS (VI+X)</t>
+          <t>XI RESULTAT AVANT IMPOTS (VI+X)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -7544,7 +7500,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>IMPOTS SUR LES RESULTATS</t>
+          <t>XII IMPOTS SUR LES RESULTATS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -7596,7 +7552,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>RESULTAT NET (XI-XII)</t>
+          <t>XIII RESULTAT NET (XI-XII)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -7648,7 +7604,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>TOTAL DES PRODUITS (I+IV+VIII)</t>
+          <t>XIV TOTAL DES PRODUITS (I+IV+VIII)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -7700,7 +7656,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>TOTAL DES CHARGES (II+V+IX+XII)</t>
+          <t>XV TOTAL DES CHARGES (II+V+IX+XII)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -7752,7 +7708,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>RESULTAT NET (XIV-XV)</t>
+          <t>XVI RESULTAT NET (XIV-XV)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">

--- a/result/100-Zine_Cereales.xlsx
+++ b/result/100-Zine_Cereales.xlsx
@@ -518,21 +518,9 @@
           <t>IMMOBILISATION EN VALEUR (a)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8418894.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8298035.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>120859.51</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>1542138.17</t>
@@ -544,7 +532,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IMMOBILISATION EN NON VALEUR (#)</t>
+          <t>IMMOBILISATION EN NON VALEUR (a)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -574,21 +562,9 @@
           <t>Frais préliminaires</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>488825.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>488825.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>19705.00</t>
@@ -630,21 +606,9 @@
           <t>Charges à répartir sur plusieurs exercices</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7930059.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7809210.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>120859.51</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>1522433.17</t>
@@ -656,7 +620,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Charges à repartir sur plusieurs exercices</t>
+          <t>Charges à répartir sur plusieurs exercices</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -686,21 +650,9 @@
           <t>Primes de remboursement des obligations</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -742,21 +694,9 @@
           <t>IMMOBILISATIONS INCORPORELLES (b)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>477760.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>179615.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>298145.00</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>194267.40</t>
@@ -798,40 +738,14 @@
           <t>Immobilisations en recherche et développement</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Immobilisations en recherche et développement</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -854,21 +768,9 @@
           <t>Brevets, marques, droits et valeurs similaires</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>469130.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>171848.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>297282.00</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>191678.40</t>
@@ -910,24 +812,12 @@
           <t>Fonds commercial</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8630.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>0.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>863.00</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2589.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -966,24 +856,12 @@
           <t>Autres immobilisations incorporelles</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7767.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2589.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1022,21 +900,9 @@
           <t>IMMOBILISATIONS CORPORELLES (C)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>189655817.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>21633303.62</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>168022513.54</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>150736596.71</t>
@@ -1078,21 +944,9 @@
           <t>Terrains</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>72330475.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>72330475.30</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>69203475.30</t>
@@ -1134,21 +988,9 @@
           <t>Constructions</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>101942784.82</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>15503929.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>86438855.76</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>75723186.03</t>
@@ -1190,21 +1032,9 @@
           <t>Installations techniques, matériel et outillage</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6829322.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2528069.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4301252.63</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>2058590.91</t>
@@ -1246,21 +1076,9 @@
           <t>Matériel de transport</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1257.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>817.54</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>1194.03</t>
@@ -1302,21 +1120,9 @@
           <t>Mobilier, matériel de bureau et aménagements divers</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8551977.16</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3600864.85</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4951112.31</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>3750150.44</t>
@@ -1358,21 +1164,9 @@
           <t>Autres immobilisations corporelles</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1414,21 +1208,9 @@
           <t>Immobilisations corporelles en cours</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1470,21 +1252,9 @@
           <t>IMMOBILISATIONS FINANCIERES (D)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1526,21 +1296,9 @@
           <t>Prêts immobilisés</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1582,21 +1340,9 @@
           <t>Autres créances financières</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1638,21 +1384,9 @@
           <t>Titres de participation</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1694,21 +1428,9 @@
           <t>Autres titres immobilisés</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1750,21 +1472,9 @@
           <t>ECARTS DE CONVERSION - ACTIF (E)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1776,7 +1486,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ECART DE CONVERSION - ACTIF (i) (Elém. Circul.)</t>
+          <t>ECART DE CONVERSION - ACTIF (i) (Elem. Circul.)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1806,21 +1516,9 @@
           <t>Diminution des créances immobilisées</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1862,21 +1560,9 @@
           <t>Augmentation des dettes de financement</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1948,21 +1634,9 @@
           <t>Stocks (F)</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>217409228.88</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>217409228.88</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>258352802.48</t>
@@ -2004,21 +1678,9 @@
           <t>Marchandises</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>211295211.14</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>211295211.14</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>251854067.83</t>
@@ -2060,21 +1722,9 @@
           <t>Matières et fournitures consommables</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6114017.74</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>6114017.74</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>6498734.65</t>
@@ -2116,21 +1766,9 @@
           <t>Produits en cours</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2172,21 +1810,9 @@
           <t>Produits intermédiaires et produits résiduels</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2228,21 +1854,9 @@
           <t>Produits finis</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2284,21 +1898,9 @@
           <t>CREANCES DE L'ACTIF CIRCULANT (G)</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>539958118.44</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>539958118.44</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>453998881.95</t>
@@ -2340,21 +1942,9 @@
           <t>Fournisseurs, débiteurs, avances et acomptes</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90471812.00</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>90471812.00</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>39471812.00</t>
@@ -2396,21 +1986,9 @@
           <t>Clients et comptes rattachés</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>328870390.66</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>328870390.66</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>328360050.69</t>
@@ -2542,21 +2120,9 @@
           <t>Autres débiteurs</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>37640000.00</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>37640000.00</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>17500000.00</t>
@@ -2598,21 +2164,9 @@
           <t>Comptes de régularisation - Actif</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2601728.19</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2601728.19</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>165196.89</t>
@@ -2654,21 +2208,9 @@
           <t>Titres valeurs de placement (H)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2740,21 +2282,9 @@
           <t>TOTAL II (F+G+H+I)</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>767367347.32</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>757367347.32</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>712351684.43</t>
@@ -2796,21 +2326,9 @@
           <t>Tresorerie_Actif</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>143264864.13</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>143264864.13</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>211773837.33</t>
@@ -2852,21 +2370,9 @@
           <t>Chèques et valeurs à encaisser</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>119198356.33</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>119198356.33</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>116411204.50</t>
@@ -2908,21 +2414,9 @@
           <t>Banques, T.G. et C.C.P.</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>23439062.60</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>23439062.60</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>94969764.13</t>
@@ -2964,21 +2458,9 @@
           <t>Caisse, Régie d’avances et accréditifs</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>627445.20</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>627445.20</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>402868.70</t>
@@ -2990,7 +2472,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Caisses, régies d'avances et accrédités</t>
+          <t>Caisses, régies d'avances et accréditifs</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3255,7 +2737,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>moins: Actionnaires, capital souscrit non appelé dont versé</t>
+          <t>moins : Actionnaires, capital souscrit non appelé dont versé</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3297,7 +2779,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Prime d'emission, de fusion, d'apport</t>
+          <t>Primes d'émission, de fusion, d'apport</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3327,10 +2809,14 @@
           <t>Ecarts de reevaluation</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3590521.80</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2772006.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -3339,7 +2825,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ecarts de reévaluation</t>
+          <t>Écarts de réévaluation</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3369,14 +2855,10 @@
           <t>Reserve legale</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3590521.80</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2772006.47</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -3415,10 +2897,14 @@
           <t>Autres reserves</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47046339.38</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>31494548.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -3459,12 +2945,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47046339.38</t>
+          <t>14937615.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31494548.26</t>
+          <t>16370306.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -3519,7 +3005,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Résultat nets en instance d'affectation (2)</t>
+          <t>Résultat net en instance d'affectation (2)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3551,12 +3037,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14937615.26</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16370306.45</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -4039,7 +3525,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ECARTS DE CONVERSION - PASSIF (h)</t>
+          <t>ÉCARTS DE CONVERSION - PASSIF (h) (dim. Cptes)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4298,7 +3784,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>592067.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -4344,7 +3830,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>354525.96</t>
+          <t>592067.27</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -4390,7 +3876,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9583841.24</t>
+          <t>354525.96</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -4436,7 +3922,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>28000136.14</t>
+          <t>9583841.24</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -4445,7 +3931,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Etat</t>
+          <t>État</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4482,7 +3968,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2457082.52</t>
+          <t>28000136.14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -4528,7 +4014,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2457082.52</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -4909,23 +4395,19 @@
           <t>TOTAL III</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>758342831.99</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>809150947.12</t>
+          <t>1313296.44</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TOTAL III</t>
+          <t>TOTAL_VIII</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4955,11 +4437,7 @@
           <t>TOTAL GENERAL I+II+III</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1069073729.50</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
           <t>1076598524.04</t>
@@ -4971,7 +4449,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TOTAL GENERAL</t>
+          <t>TOTAL GENERAL (I+II+III)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5112,24 +4590,20 @@
           <t>Ventes de marchandises</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1463708857.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1453859946.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1463708857.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1483708857.03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -5168,11 +4642,7 @@
           <t xml:space="preserve">Ventes de biens et services produites </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>46397049.70</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>18264574.26</t>
@@ -5185,7 +4655,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>46397049.70</t>
+          <t>48397049.70</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -5227,17 +4697,17 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
+          <t>1481973431.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>1500256995.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1481973431.29</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -5246,7 +4716,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Chiffres d'affaires</t>
+          <t>Chiffres d'affaires TOTAL</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -5278,11 +4748,7 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5327,17 +4793,17 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
+          <t>66001327.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>50627122.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>66001327.82</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -5346,7 +4812,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Immobilisations produites pour l'Ese même</t>
+          <t>Immobilisations produites pour l'E.S.E p/le même</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -5378,11 +4844,7 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5426,11 +4888,7 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5474,11 +4932,7 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5523,17 +4977,17 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
+          <t>1547974759.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>1550884118.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1547974759.11</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -5605,17 +5059,17 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
+          <t>1417001374.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>1417907600.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1417001374.78</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -5657,17 +5111,17 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
+          <t>21239921.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>20918291.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>21239921.40</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -5709,17 +5163,17 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
+          <t>41107205.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>38667567.05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>41107205.13</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -5761,17 +5215,17 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
+          <t>949593.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>611393.75</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>949593.34</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -5813,17 +5267,17 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
+          <t>13922548.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>10614560.63</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>13922548.00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -5864,11 +5318,7 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5913,17 +5363,17 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
+          <t>7675304.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>6459923.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>7675304.03</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -5965,17 +5415,17 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1496179336.37</t>
+          <t>1501895946.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1501895946.68</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1495179336.37</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -6017,17 +5467,17 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
+          <t>46078812.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>55704781.75</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>46078812.43</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -6036,7 +5486,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>RESULTAT D'EXPLOITATION (I - II)</t>
+          <t>III RESULTAT D'EXPLOITATION (I - II)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -6069,11 +5519,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Autres produits financiers</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6098,11 +5562,7 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -6147,17 +5607,17 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
+          <t>5782.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>363969.06</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>5782.27</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -6198,30 +5658,12 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>intérêts et autres produits financiers</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6246,11 +5688,7 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -6262,7 +5700,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Reprises financières; transfert de changes</t>
+          <t>Reprises financières, transfert de charges</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -6295,17 +5733,17 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
+          <t>5782.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>363969.06</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>5782.27</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -6377,17 +5815,17 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
+          <t>29645213.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>33105208.63</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>29645213.02</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -6428,11 +5866,7 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -6476,11 +5910,7 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -6524,11 +5954,7 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -6573,17 +5999,17 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
+          <t>29645213.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>33105208.63</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>29645213.02</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -6623,13 +6049,35 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-29639430.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-32741239.57</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>VI RESULTAT FINANCIER (IV - V)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6653,13 +6101,35 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>16439381.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>22963542.18</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>VII RESULTAT COURANT (III - VI)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6684,30 +6154,12 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>22963542.18</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>16439381.68</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>VI RESULTAT COURANT (Report)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6735,19 +6187,9 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>VII PRODUITS NON COURANTS</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6771,35 +6213,13 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>540000.00</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Produits des cessions d'immobilisations</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6824,30 +6244,12 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Subventions d'équilibre</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6872,30 +6274,12 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Reprises sur subventions d'investissement</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6918,40 +6302,14 @@
           <t>Autres produits non courants</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1313296.44</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4889310.18</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>4889376.18</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Autres produits non courants</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6976,30 +6334,12 @@
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Reprises non courantes; transferts de charges</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7022,40 +6362,14 @@
           <t>TOTAL VII</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1313296.44</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5429310.18</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>5429376.18</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>TOTAL VII</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7083,19 +6397,9 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>VIII CHARGES NON COURANTES</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7119,35 +6423,13 @@
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>125.00</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Valeurs nettes d'amortis, des immos cédées</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7171,35 +6453,13 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1792.80</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1792.80</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Subventions accordées</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7223,35 +6483,13 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>135.37</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>34599.60</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Autres charges non courantes</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7276,30 +6514,12 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Dotations non courantes aux amortiss, et prov.</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7322,20 +6542,24 @@
           <t>TOTAL IX</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1928.17</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>34724.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -7344,7 +6568,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>TOTAL IX</t>
+          <t>TOTAL_IX</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -7376,30 +6600,12 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1311368.27</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>5394651.58</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>X RESULTAT NON COURANT (VIII-IX)</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7424,34 +6630,16 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>24274910.45</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>21834033.26</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>XI RESULTAT AVANT IMPOTS (VI+X)</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7475,39 +6663,17 @@
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>7904604.00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>6896418.00</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>7904604.00</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J52" t="n">
-        <v>5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>XII IMPOTS SUR LES RESULTATS</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7532,34 +6698,16 @@
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>16370306.45</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>14937615.26</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J53" t="n">
-        <v>5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>XIII RESULTAT NET (XI-XII)</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7584,34 +6732,16 @@
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>1552561383.62</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1553409917.56</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J54" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>XIV TOTAL DES PRODUITS (I+IV+VIII)</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7636,34 +6766,16 @@
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1536191077.17</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1538472302.30</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J55" t="n">
-        <v>5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>XV TOTAL DES CHARGES (II+V+IX+XII)</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7688,34 +6800,16 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>16370306.45</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>14937615.26</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J56" t="n">
-        <v>5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>XVI RESULTAT NET (XIV-XV)</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
